--- a/Resources/Domestic Violence (2015-2023) - Hamilton Police Services.xlsx
+++ b/Resources/Domestic Violence (2015-2023) - Hamilton Police Services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keyanapregent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keyanapregent/Desktop/YWCA-Gender-Based-Safety-Audit/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2759BCB0-3EDC-AC4D-B81E-258900BF0314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9DD726-680C-6A4F-87EF-4D684DACDD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{9B88E157-9351-724D-88DD-56E48342AD41}"/>
+    <workbookView xWindow="8560" yWindow="500" windowWidth="20240" windowHeight="15880" xr2:uid="{9B88E157-9351-724D-88DD-56E48342AD41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Total Number of Occurances</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Charges Laid</t>
   </si>
@@ -47,13 +44,19 @@
     <t>Males Charged</t>
   </si>
   <si>
-    <t>Females Charges</t>
-  </si>
-  <si>
     <t>Dual Charges</t>
   </si>
   <si>
     <t>Multi Person Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Occurances </t>
+  </si>
+  <si>
+    <t>Females Charged</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -89,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,235 +429,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F0A001-C317-AC43-BE73-D88CEC0C6719}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-      <c r="G1">
-        <v>2020</v>
-      </c>
-      <c r="H1">
-        <v>2021</v>
-      </c>
-      <c r="I1">
-        <v>2022</v>
-      </c>
-      <c r="J1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42369</v>
       </c>
       <c r="B2">
         <v>6485</v>
       </c>
       <c r="C2">
+        <v>3583</v>
+      </c>
+      <c r="D2">
+        <v>1083</v>
+      </c>
+      <c r="E2">
+        <v>231</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B3">
         <v>6519</v>
-      </c>
-      <c r="D2">
-        <v>6556</v>
-      </c>
-      <c r="E2">
-        <v>6853</v>
-      </c>
-      <c r="F2">
-        <v>7076</v>
-      </c>
-      <c r="G2">
-        <v>7044</v>
-      </c>
-      <c r="H2">
-        <v>6818</v>
-      </c>
-      <c r="I2">
-        <v>6762</v>
-      </c>
-      <c r="J2">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3583</v>
       </c>
       <c r="C3">
         <v>3379</v>
       </c>
       <c r="D3">
+        <v>986</v>
+      </c>
+      <c r="E3">
+        <v>235</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B4">
+        <v>6556</v>
+      </c>
+      <c r="C4">
         <v>3512</v>
-      </c>
-      <c r="E3">
-        <v>4215</v>
-      </c>
-      <c r="F3">
-        <v>5035</v>
-      </c>
-      <c r="G3">
-        <v>5229</v>
-      </c>
-      <c r="H3">
-        <v>5142</v>
-      </c>
-      <c r="I3">
-        <v>4938</v>
-      </c>
-      <c r="J3">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1083</v>
-      </c>
-      <c r="C4">
-        <v>986</v>
       </c>
       <c r="D4">
         <v>1056</v>
       </c>
       <c r="E4">
+        <v>229</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B5">
+        <v>6853</v>
+      </c>
+      <c r="C5">
+        <v>4215</v>
+      </c>
+      <c r="D5">
         <v>1169</v>
-      </c>
-      <c r="F4">
-        <v>1383</v>
-      </c>
-      <c r="G4">
-        <v>1346</v>
-      </c>
-      <c r="H4">
-        <v>1373</v>
-      </c>
-      <c r="I4">
-        <v>1263</v>
-      </c>
-      <c r="J4">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>231</v>
-      </c>
-      <c r="C5">
-        <v>235</v>
-      </c>
-      <c r="D5">
-        <v>229</v>
       </c>
       <c r="E5">
         <v>220</v>
       </c>
       <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B6">
+        <v>7076</v>
+      </c>
+      <c r="C6">
+        <v>5035</v>
+      </c>
+      <c r="D6">
+        <v>1383</v>
+      </c>
+      <c r="E6">
         <v>297</v>
-      </c>
-      <c r="G5">
-        <v>289</v>
-      </c>
-      <c r="H5">
-        <v>278</v>
-      </c>
-      <c r="I5">
-        <v>325</v>
-      </c>
-      <c r="J5">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>31</v>
       </c>
       <c r="F6">
         <v>63</v>
       </c>
       <c r="G6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B7">
+        <v>7044</v>
+      </c>
+      <c r="C7">
+        <v>5229</v>
+      </c>
+      <c r="D7">
+        <v>1346</v>
+      </c>
+      <c r="E7">
+        <v>289</v>
+      </c>
+      <c r="F7">
         <v>73</v>
-      </c>
-      <c r="H6">
-        <v>45</v>
-      </c>
-      <c r="I6">
-        <v>48</v>
-      </c>
-      <c r="J6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>68</v>
       </c>
       <c r="G7">
         <v>82</v>
       </c>
-      <c r="H7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B8">
+        <v>6818</v>
+      </c>
+      <c r="C8">
+        <v>5142</v>
+      </c>
+      <c r="D8">
+        <v>1373</v>
+      </c>
+      <c r="E8">
+        <v>278</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8">
         <v>51</v>
       </c>
-      <c r="I7">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B9">
+        <v>6762</v>
+      </c>
+      <c r="C9">
+        <v>4938</v>
+      </c>
+      <c r="D9">
+        <v>1263</v>
+      </c>
+      <c r="E9">
+        <v>325</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="J7">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B10">
+        <v>6410</v>
+      </c>
+      <c r="C10">
+        <v>4405</v>
+      </c>
+      <c r="D10">
+        <v>1215</v>
+      </c>
+      <c r="E10">
+        <v>313</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
         <v>55</v>
       </c>
     </row>
